--- a/プロダクトバックログ.xlsx
+++ b/プロダクトバックログ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>優先度</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>ユーザは、その日に使用したお金を区分別に登録したい。
@@ -29,10 +32,16 @@
     <t>高</t>
   </si>
   <si>
+    <t>完了</t>
+  </si>
+  <si>
     <t>ユーザは、月ごとに使用したお金の合計を知りたい。
 なぜなら、その月の支出を見直して、生活の改善を図りたいからだ。</t>
   </si>
   <si>
+    <t>対応中</t>
+  </si>
+  <si>
     <t>ユーザは、日ごとに使用したお金の合計を知りたい。
 なぜなら、お金を使いすぎた日を振り返ることで、その日の支出が本当に必要だったのかを考えるからだ。</t>
   </si>
@@ -47,8 +56,19 @@
     <t>小</t>
   </si>
   <si>
+    <t>未着手</t>
+  </si>
+  <si>
     <t>ユーザは、その月の収入を登録したい。
 なぜなら、収支を確認して、その月にどの程度貯金できたかを把握したいからだ。</t>
+  </si>
+  <si>
+    <t>ユーザは、ログインをし個人個人で支出の管理をしたい。
+なぜなら、他人に自分の支出を見られたくないからだ。</t>
+  </si>
+  <si>
+    <t>ユーザは、自分が登録した収支を修正したい。
+なぜなら、ユーザ操作による登録ミスが起こりえるからだ。</t>
   </si>
 </sst>
 </file>
@@ -123,7 +143,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -349,16 +380,22 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="2">
         <v>1.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -366,10 +403,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -377,10 +417,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -388,10 +431,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -399,25 +445,42 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2">
         <v>6.0</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2">
         <v>7.0</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2">
@@ -425,6 +488,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
       <c r="B11" s="2">
@@ -432,6 +496,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12">
       <c r="B12" s="2">
@@ -439,8 +504,14 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:E12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>